--- a/Modeling of solar PV/ElectricityStorage.xlsx
+++ b/Modeling of solar PV/ElectricityStorage.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bdl352\Box Sync\Systems_Modeling_2017\Lectures\ElectricityStorage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ZWL/Documents/GitHub/Assorted_projects/Modeling of solar PV/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465"/>
+    <workbookView xWindow="3100" yWindow="600" windowWidth="20520" windowHeight="9460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -520,7 +520,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -758,7 +757,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -878,7 +876,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -953,7 +950,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1577,7 +1573,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1857,20 +1859,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:58" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1947,7 +1949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:58" s="39" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:58" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -2007,7 +2009,7 @@
       <c r="BE2" s="63"/>
       <c r="BF2" s="63"/>
     </row>
-    <row r="3" spans="1:58" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:58" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>28</v>
       </c>
@@ -2069,7 +2071,7 @@
       <c r="BE3" s="63"/>
       <c r="BF3" s="63"/>
     </row>
-    <row r="4" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:58" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -2179,7 +2181,7 @@
       <c r="BE4" s="64"/>
       <c r="BF4" s="64"/>
     </row>
-    <row r="5" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
@@ -2289,7 +2291,7 @@
       <c r="BE5" s="64"/>
       <c r="BF5" s="64"/>
     </row>
-    <row r="6" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
@@ -2399,7 +2401,7 @@
       <c r="BE6" s="64"/>
       <c r="BF6" s="64"/>
     </row>
-    <row r="7" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
@@ -2509,7 +2511,7 @@
       <c r="BE7" s="64"/>
       <c r="BF7" s="64"/>
     </row>
-    <row r="8" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
@@ -2619,7 +2621,7 @@
       <c r="BE8" s="64"/>
       <c r="BF8" s="64"/>
     </row>
-    <row r="9" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
@@ -2752,7 +2754,7 @@
       <c r="BE9" s="64"/>
       <c r="BF9" s="64"/>
     </row>
-    <row r="10" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
@@ -2885,7 +2887,7 @@
       <c r="BE10" s="64"/>
       <c r="BF10" s="64"/>
     </row>
-    <row r="11" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
@@ -3018,7 +3020,7 @@
       <c r="BE11" s="64"/>
       <c r="BF11" s="64"/>
     </row>
-    <row r="12" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:58" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>9</v>
       </c>
@@ -3151,7 +3153,7 @@
       <c r="BE12" s="64"/>
       <c r="BF12" s="64"/>
     </row>
-    <row r="13" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
         <v>10</v>
       </c>
@@ -3285,7 +3287,7 @@
       <c r="BE13" s="64"/>
       <c r="BF13" s="64"/>
     </row>
-    <row r="14" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>11</v>
       </c>
@@ -3419,7 +3421,7 @@
       <c r="BE14" s="64"/>
       <c r="BF14" s="64"/>
     </row>
-    <row r="15" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>12</v>
       </c>
@@ -3553,7 +3555,7 @@
       <c r="BE15" s="64"/>
       <c r="BF15" s="64"/>
     </row>
-    <row r="16" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>13</v>
       </c>
@@ -3687,7 +3689,7 @@
       <c r="BE16" s="64"/>
       <c r="BF16" s="64"/>
     </row>
-    <row r="17" spans="1:58" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:58" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>14</v>
       </c>
@@ -3797,7 +3799,7 @@
       <c r="BE17" s="64"/>
       <c r="BF17" s="64"/>
     </row>
-    <row r="18" spans="1:58" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:58" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>15</v>
       </c>
@@ -3907,7 +3909,7 @@
       <c r="BE18" s="64"/>
       <c r="BF18" s="64"/>
     </row>
-    <row r="19" spans="1:58" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:58" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>16</v>
       </c>
@@ -4017,7 +4019,7 @@
       <c r="BE19" s="64"/>
       <c r="BF19" s="64"/>
     </row>
-    <row r="20" spans="1:58" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:58" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>17</v>
       </c>
@@ -4127,7 +4129,7 @@
       <c r="BE20" s="64"/>
       <c r="BF20" s="64"/>
     </row>
-    <row r="21" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
         <v>18</v>
       </c>
@@ -4237,7 +4239,7 @@
       <c r="BE21" s="64"/>
       <c r="BF21" s="64"/>
     </row>
-    <row r="22" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
         <v>19</v>
       </c>
@@ -4347,7 +4349,7 @@
       <c r="BE22" s="64"/>
       <c r="BF22" s="64"/>
     </row>
-    <row r="23" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="30" t="s">
         <v>20</v>
       </c>
@@ -4457,7 +4459,7 @@
       <c r="BE23" s="64"/>
       <c r="BF23" s="64"/>
     </row>
-    <row r="24" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>21</v>
       </c>
@@ -4567,7 +4569,7 @@
       <c r="BE24" s="64"/>
       <c r="BF24" s="64"/>
     </row>
-    <row r="25" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
         <v>26</v>
       </c>
@@ -4700,7 +4702,7 @@
       <c r="BE25" s="64"/>
       <c r="BF25" s="64"/>
     </row>
-    <row r="26" spans="1:58" s="54" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:58" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>41</v>
       </c>
@@ -4764,7 +4766,7 @@
       <c r="BE26" s="64"/>
       <c r="BF26" s="64"/>
     </row>
-    <row r="27" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
         <v>35</v>
       </c>
@@ -4828,7 +4830,7 @@
       <c r="BE27" s="64"/>
       <c r="BF27" s="64"/>
     </row>
-    <row r="28" spans="1:58" s="36" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:58" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -4888,7 +4890,7 @@
       <c r="BE28" s="64"/>
       <c r="BF28" s="64"/>
     </row>
-    <row r="29" spans="1:58" s="36" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:58" s="36" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>27</v>
       </c>
@@ -4950,7 +4952,7 @@
       <c r="BE29" s="64"/>
       <c r="BF29" s="64"/>
     </row>
-    <row r="30" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
         <v>22</v>
       </c>
@@ -5012,7 +5014,7 @@
       <c r="BE30" s="64"/>
       <c r="BF30" s="64"/>
     </row>
-    <row r="31" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
         <v>23</v>
       </c>
@@ -5074,7 +5076,7 @@
       <c r="BE31" s="64"/>
       <c r="BF31" s="64"/>
     </row>
-    <row r="32" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
         <v>24</v>
       </c>
@@ -5136,7 +5138,7 @@
       <c r="BE32" s="64"/>
       <c r="BF32" s="64"/>
     </row>
-    <row r="33" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
         <v>25</v>
       </c>
@@ -5198,7 +5200,7 @@
       <c r="BE33" s="64"/>
       <c r="BF33" s="64"/>
     </row>
-    <row r="34" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="32" t="s">
         <v>34</v>
       </c>
@@ -5260,7 +5262,7 @@
       <c r="BE34" s="64"/>
       <c r="BF34" s="64"/>
     </row>
-    <row r="35" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="32" t="s">
         <v>36</v>
       </c>
@@ -5322,7 +5324,7 @@
       <c r="BE35" s="64"/>
       <c r="BF35" s="64"/>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -5382,7 +5384,7 @@
       <c r="BE36" s="64"/>
       <c r="BF36" s="64"/>
     </row>
-    <row r="37" spans="1:58" s="44" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:58" s="44" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
         <v>29</v>
       </c>
@@ -5444,7 +5446,7 @@
       <c r="BE37" s="65"/>
       <c r="BF37" s="65"/>
     </row>
-    <row r="38" spans="1:58" s="50" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:58" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
         <v>38</v>
       </c>
@@ -5506,7 +5508,7 @@
       <c r="BE38" s="65"/>
       <c r="BF38" s="65"/>
     </row>
-    <row r="39" spans="1:58" s="51" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:58" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
         <v>39</v>
       </c>
@@ -5568,7 +5570,7 @@
       <c r="BE39" s="65"/>
       <c r="BF39" s="65"/>
     </row>
-    <row r="40" spans="1:58" s="51" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:58" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>42</v>
       </c>
@@ -5630,7 +5632,7 @@
       <c r="BE40" s="65"/>
       <c r="BF40" s="65"/>
     </row>
-    <row r="41" spans="1:58" s="49" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:58" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="48" t="s">
         <v>40</v>
       </c>
@@ -5692,7 +5694,7 @@
       <c r="BE41" s="65"/>
       <c r="BF41" s="65"/>
     </row>
-    <row r="42" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30" t="s">
         <v>30</v>
       </c>
@@ -5754,7 +5756,7 @@
       <c r="BE42" s="64"/>
       <c r="BF42" s="64"/>
     </row>
-    <row r="43" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="30" t="s">
         <v>31</v>
       </c>
@@ -5816,7 +5818,7 @@
       <c r="BE43" s="64"/>
       <c r="BF43" s="64"/>
     </row>
-    <row r="44" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30" t="s">
         <v>37</v>
       </c>
@@ -5878,7 +5880,7 @@
       <c r="BE44" s="64"/>
       <c r="BF44" s="64"/>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="59"/>
       <c r="C45" s="59"/>
@@ -5938,7 +5940,7 @@
       <c r="BE45" s="64"/>
       <c r="BF45" s="64"/>
     </row>
-    <row r="46" spans="1:58" ht="21" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:58" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
         <v>32</v>
       </c>
@@ -5967,24 +5969,24 @@
       <c r="X46" s="59"/>
       <c r="Y46" s="59"/>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A47" s="46" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="47"/>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="29"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="29"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B50" s="29"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B51" s="29"/>
     </row>
   </sheetData>
